--- a/molgenis-platform-integration-tests/src/test/resources/xls/it_emx_deep_nesting.xlsx
+++ b/molgenis-platform-integration-tests/src/test/resources/xls/it_emx_deep_nesting.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="686"/>
+    <workbookView xWindow="5680" yWindow="2300" windowWidth="25600" windowHeight="14600" tabRatio="955"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
-    <sheet name="deep_advanced_TestEntity_1" sheetId="4" r:id="rId4"/>
-    <sheet name="deep_advanced_p_TestEntity_2" sheetId="5" r:id="rId5"/>
-    <sheet name="deep_TestCategorical_1" sheetId="6" r:id="rId6"/>
-    <sheet name="deep_TestXref_1" sheetId="7" r:id="rId7"/>
-    <sheet name="deep_TestXref_2" sheetId="9" r:id="rId8"/>
-    <sheet name="deep_TestMref_1" sheetId="8" r:id="rId9"/>
+    <sheet name="it_deep_advanced_TestEntity_1" sheetId="4" r:id="rId4"/>
+    <sheet name="it_deep_advanced_p_TestEntity_2" sheetId="5" r:id="rId5"/>
+    <sheet name="it_deep_TestCategorical_1" sheetId="6" r:id="rId6"/>
+    <sheet name="it_deep_TestXref_1" sheetId="7" r:id="rId7"/>
+    <sheet name="it_deep_TestXref_2" sheetId="9" r:id="rId8"/>
+    <sheet name="it_deep_TestMref_1" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="461">
   <si>
     <t>name</t>
   </si>
@@ -1379,34 +1379,37 @@
     <t>mref_50,mref_1</t>
   </si>
   <si>
-    <t>deep</t>
-  </si>
-  <si>
-    <t>deep_advanced</t>
-  </si>
-  <si>
-    <t>deep_TestEntity_0</t>
-  </si>
-  <si>
-    <t>deep_advanced_TestEntity_1</t>
-  </si>
-  <si>
-    <t>deep_TestCategorical_1</t>
-  </si>
-  <si>
-    <t>deep_TestXref_1</t>
-  </si>
-  <si>
-    <t>deep_TestXref_2</t>
-  </si>
-  <si>
-    <t>deep_TestMref_1</t>
-  </si>
-  <si>
-    <t>deep_advanced_p</t>
-  </si>
-  <si>
-    <t>deep_advanced_p_TestEntity_2</t>
+    <t>it</t>
+  </si>
+  <si>
+    <t>it_deep</t>
+  </si>
+  <si>
+    <t>it_deep_advanced</t>
+  </si>
+  <si>
+    <t>it_deep_advanced_p</t>
+  </si>
+  <si>
+    <t>it_deep_TestEntity_0</t>
+  </si>
+  <si>
+    <t>it_deep_advanced_TestEntity_1</t>
+  </si>
+  <si>
+    <t>it_deep_advanced_p_TestEntity_2</t>
+  </si>
+  <si>
+    <t>it_deep_TestCategorical_1</t>
+  </si>
+  <si>
+    <t>it_deep_TestXref_1</t>
+  </si>
+  <si>
+    <t>it_deep_TestXref_2</t>
+  </si>
+  <si>
+    <t>it_deep_TestMref_1</t>
   </si>
 </sst>
 </file>
@@ -1462,8 +1465,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1604,7 +1613,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1672,6 +1681,9 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1739,6 +1751,9 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2073,16 +2088,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2098,28 +2114,33 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" t="s">
         <v>451</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>450</v>
       </c>
     </row>
@@ -2139,14 +2160,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2171,7 +2192,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -2182,13 +2203,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2196,10 +2217,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2207,7 +2228,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2215,7 +2236,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2223,7 +2244,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2231,7 +2252,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -2249,15 +2270,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -2296,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -2310,7 +2331,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C3" t="s">
         <v>136</v>
@@ -2327,7 +2348,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -2344,13 +2365,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -2364,13 +2385,13 @@
         <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -2384,7 +2405,7 @@
         <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C7" t="s">
         <v>239</v>
@@ -2401,13 +2422,13 @@
         <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C8" t="s">
         <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -2421,7 +2442,7 @@
         <v>394</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C9" t="s">
         <v>397</v>
@@ -2438,13 +2459,13 @@
         <v>395</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -2461,7 +2482,7 @@
         <v>396</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C11" t="s">
         <v>239</v>
@@ -2481,7 +2502,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -2498,7 +2519,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C13" t="s">
         <v>136</v>
@@ -2515,7 +2536,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2529,7 +2550,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
         <v>135</v>
@@ -2546,13 +2567,13 @@
         <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -2566,7 +2587,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -2580,13 +2601,13 @@
         <v>240</v>
       </c>
       <c r="B18" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C18" t="s">
         <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -2600,7 +2621,7 @@
         <v>342</v>
       </c>
       <c r="B19" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
         <v>239</v>
@@ -2617,7 +2638,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C20" t="s">
         <v>136</v>
@@ -2634,13 +2655,13 @@
         <v>241</v>
       </c>
       <c r="B21" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C21" t="s">
         <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2665,7 +2686,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5648,7 +5669,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6233,7 +6254,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/molgenis-platform-integration-tests/src/test/resources/xls/it_emx_deep_nesting.xlsx
+++ b/molgenis-platform-integration-tests/src/test/resources/xls/it_emx_deep_nesting.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="2300" windowWidth="25600" windowHeight="14600" tabRatio="955"/>
+    <workbookView xWindow="5680" yWindow="2300" windowWidth="25600" windowHeight="14600" tabRatio="955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
-    <sheet name="it_deep_advanced_TestEntity_1" sheetId="4" r:id="rId4"/>
-    <sheet name="it_deep_advanced_p_TestEntity_2" sheetId="5" r:id="rId5"/>
-    <sheet name="it_deep_TestCategorical_1" sheetId="6" r:id="rId6"/>
-    <sheet name="it_deep_TestXref_1" sheetId="7" r:id="rId7"/>
-    <sheet name="it_deep_TestXref_2" sheetId="9" r:id="rId8"/>
-    <sheet name="it_deep_TestMref_1" sheetId="8" r:id="rId9"/>
+    <sheet name="it_deep_advanced_TestEntity1" sheetId="4" r:id="rId4"/>
+    <sheet name="it_deep_advanced_p_TestEntity2" sheetId="5" r:id="rId5"/>
+    <sheet name="it_deep_TestCategorical1" sheetId="6" r:id="rId6"/>
+    <sheet name="it_deep_TestXref1" sheetId="7" r:id="rId7"/>
+    <sheet name="it_deep_TestXref2" sheetId="9" r:id="rId8"/>
+    <sheet name="it_deep_TestMref1" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -71,15 +71,6 @@
     <t>Package for testing purposes</t>
   </si>
   <si>
-    <t>TestEntity_1</t>
-  </si>
-  <si>
-    <t>TestEntity_2</t>
-  </si>
-  <si>
-    <t>TestEntity_0</t>
-  </si>
-  <si>
     <t>extends</t>
   </si>
   <si>
@@ -101,21 +92,9 @@
     <t>xref</t>
   </si>
   <si>
-    <t>TestXref_1</t>
-  </si>
-  <si>
     <t>Date_1</t>
   </si>
   <si>
-    <t>TestCategorical_1</t>
-  </si>
-  <si>
-    <t>TestMref_1</t>
-  </si>
-  <si>
-    <t>TestXref_2</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -1391,25 +1370,46 @@
     <t>it_deep_advanced_p</t>
   </si>
   <si>
-    <t>it_deep_TestEntity_0</t>
-  </si>
-  <si>
-    <t>it_deep_advanced_TestEntity_1</t>
-  </si>
-  <si>
-    <t>it_deep_advanced_p_TestEntity_2</t>
-  </si>
-  <si>
-    <t>it_deep_TestCategorical_1</t>
-  </si>
-  <si>
-    <t>it_deep_TestXref_1</t>
-  </si>
-  <si>
-    <t>it_deep_TestXref_2</t>
-  </si>
-  <si>
-    <t>it_deep_TestMref_1</t>
+    <t>TestEntity0</t>
+  </si>
+  <si>
+    <t>TestEntity1</t>
+  </si>
+  <si>
+    <t>TestEntity2</t>
+  </si>
+  <si>
+    <t>TestCategorical1</t>
+  </si>
+  <si>
+    <t>TestXref1</t>
+  </si>
+  <si>
+    <t>TestXref2</t>
+  </si>
+  <si>
+    <t>TestMref1</t>
+  </si>
+  <si>
+    <t>it_deep_TestEntity0</t>
+  </si>
+  <si>
+    <t>it_deep_advanced_TestEntity1</t>
+  </si>
+  <si>
+    <t>it_deep_TestXref1</t>
+  </si>
+  <si>
+    <t>it_deep_TestMref1</t>
+  </si>
+  <si>
+    <t>it_deep_TestCategorical1</t>
+  </si>
+  <si>
+    <t>it_deep_TestXref2</t>
+  </si>
+  <si>
+    <t>it_deep_advanced_p_TestEntity2</t>
   </si>
 </sst>
 </file>
@@ -1465,8 +1465,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1613,7 +1619,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1684,6 +1690,9 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1754,6 +1763,9 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2090,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2114,34 +2126,34 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2172,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2184,15 +2196,15 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -2200,10 +2212,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -2214,10 +2226,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E4" t="s">
         <v>455</v>
@@ -2225,34 +2237,34 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -2270,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2314,7 +2326,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>454</v>
@@ -2328,13 +2340,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>454</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2345,13 +2357,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>454</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -2362,16 +2374,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>454</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -2382,16 +2394,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>455</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -2402,13 +2414,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
         <v>455</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -2419,16 +2431,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -2439,13 +2451,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C9" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -2456,17 +2468,17 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>456</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>458</v>
-      </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
@@ -2474,18 +2486,18 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -2494,18 +2506,18 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2516,13 +2528,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -2533,10 +2545,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2547,13 +2559,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -2564,13 +2576,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>459</v>
@@ -2584,7 +2596,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>459</v>
@@ -2598,16 +2610,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
         <v>459</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -2618,13 +2630,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
         <v>459</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -2635,13 +2647,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -2652,16 +2664,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2697,1022 +2709,1022 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C3">
         <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C4">
         <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C5">
         <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C6">
         <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C7">
         <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C8">
         <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C9">
         <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C10">
         <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C11">
         <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C12">
         <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C13">
         <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C14">
         <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C15">
         <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C16">
         <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C17">
         <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C18">
         <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C19">
         <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C20">
         <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C21">
         <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C22">
         <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C23">
         <v>205</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C24">
         <v>210</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C25">
         <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C26">
         <v>220</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C27">
         <v>225</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C28">
         <v>230</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C29">
         <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C30">
         <v>240</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C31">
         <v>245</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C32">
         <v>250</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C33">
         <v>255</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C34">
         <v>260</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C35">
         <v>265</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C36">
         <v>270</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C37">
         <v>275</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C38">
         <v>280</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C39">
         <v>285</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C40">
         <v>290</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B41" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C41">
         <v>295</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C42">
         <v>300</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C43">
         <v>305</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B44" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C44">
         <v>310</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C45">
         <v>315</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C46">
         <v>320</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C47">
         <v>325</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B48" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C48">
         <v>330</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C49">
         <v>335</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C50">
         <v>340</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C51">
         <v>345</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3744,45 +3756,45 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C2">
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3791,27 +3803,27 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C3">
         <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3820,27 +3832,27 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C4">
         <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3849,27 +3861,27 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C5">
         <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -3878,27 +3890,27 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C6">
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -3907,27 +3919,27 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C7">
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -3936,27 +3948,27 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C8">
         <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -3965,27 +3977,27 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C9">
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3994,27 +4006,27 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C10">
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -4023,27 +4035,27 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C11">
         <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4052,27 +4064,27 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C12">
         <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -4081,27 +4093,27 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C13">
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -4110,27 +4122,27 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C14">
         <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4139,27 +4151,27 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C15">
         <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -4168,27 +4180,27 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C16">
         <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -4197,27 +4209,27 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C17">
         <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -4226,27 +4238,27 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C18">
         <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -4255,27 +4267,27 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C19">
         <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -4284,27 +4296,27 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C20">
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -4313,27 +4325,27 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C21">
         <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -4342,27 +4354,27 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B22" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C22">
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -4371,27 +4383,27 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B23" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C23">
         <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -4400,27 +4412,27 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B24" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C24">
         <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -4429,27 +4441,27 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C25">
         <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4458,27 +4470,27 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C26">
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -4487,27 +4499,27 @@
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B27" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C27">
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4516,27 +4528,27 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C28">
         <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4545,27 +4557,27 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B29" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C29">
         <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -4574,27 +4586,27 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B30" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C30">
         <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4603,27 +4615,27 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C31">
         <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -4632,27 +4644,27 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B32" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C32">
         <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4661,27 +4673,27 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B33" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C33">
         <v>153</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4690,27 +4702,27 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C34">
         <v>155</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -4719,27 +4731,27 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B35" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C35">
         <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -4748,27 +4760,27 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B36" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C36">
         <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -4777,27 +4789,27 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C37">
         <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -4806,27 +4818,27 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B38" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C38">
         <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -4835,27 +4847,27 @@
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C39">
         <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -4864,27 +4876,27 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C40">
         <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -4893,27 +4905,27 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B41" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C41">
         <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -4922,27 +4934,27 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C42">
         <v>171</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -4951,27 +4963,27 @@
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C43">
         <v>173</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -4980,27 +4992,27 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C44">
         <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -5009,27 +5021,27 @@
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
+        <v>379</v>
+      </c>
+      <c r="B45" t="s">
         <v>386</v>
-      </c>
-      <c r="B45" t="s">
-        <v>393</v>
       </c>
       <c r="C45">
         <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -5038,27 +5050,27 @@
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C46">
         <v>179</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -5067,27 +5079,27 @@
         <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C47">
         <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -5096,27 +5108,27 @@
         <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C48">
         <v>183</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -5125,27 +5137,27 @@
         <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C49">
         <v>185</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -5154,27 +5166,27 @@
         <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B50" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C50">
         <v>187</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -5183,27 +5195,27 @@
         <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C51">
         <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -5212,13 +5224,13 @@
         <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5247,10 +5259,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5258,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5266,7 +5278,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5274,7 +5286,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5282,7 +5294,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5290,7 +5302,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5298,7 +5310,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5306,7 +5318,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5314,7 +5326,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5322,7 +5334,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5330,7 +5342,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5338,7 +5350,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5346,7 +5358,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5354,7 +5366,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5362,7 +5374,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5370,7 +5382,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5378,7 +5390,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5386,7 +5398,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5394,7 +5406,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5402,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5410,7 +5422,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5418,7 +5430,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5426,7 +5438,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5434,7 +5446,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5442,7 +5454,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5450,7 +5462,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5458,7 +5470,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5466,7 +5478,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5474,7 +5486,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5482,7 +5494,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5490,7 +5502,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5498,7 +5510,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5506,7 +5518,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5514,7 +5526,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5522,7 +5534,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5530,7 +5542,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5538,7 +5550,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5546,7 +5558,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5554,7 +5566,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5562,7 +5574,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5570,7 +5582,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5578,7 +5590,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5586,7 +5598,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5594,7 +5606,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5602,7 +5614,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5610,7 +5622,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5618,7 +5630,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5626,7 +5638,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5634,7 +5646,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5642,7 +5654,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5650,7 +5662,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5679,563 +5691,563 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2">
         <v>41619</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2">
         <v>41619</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2">
         <v>41619</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2">
         <v>41619</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2">
         <v>41619</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2">
         <v>36892</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2">
         <v>36893</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2">
         <v>36894</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2">
         <v>36895</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2">
         <v>36896</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2">
         <v>36897</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2">
         <v>36898</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2">
         <v>36899</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2">
         <v>36900</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2">
         <v>36901</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B17" s="2">
         <v>36902</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2">
         <v>36903</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2">
         <v>36904</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2">
         <v>36905</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B21" s="2">
         <v>36906</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B22" s="2">
         <v>36907</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2">
         <v>36908</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2">
         <v>36909</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2">
         <v>36910</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2">
         <v>36911</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B27" s="2">
         <v>36912</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B28" s="2">
         <v>36913</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B29" s="2">
         <v>36914</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B30" s="2">
         <v>36915</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B31" s="2">
         <v>36916</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B32" s="2">
         <v>36917</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B33" s="2">
         <v>36918</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B34" s="2">
         <v>36919</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B35" s="2">
         <v>36920</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B36" s="2">
         <v>36921</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B37" s="2">
         <v>36922</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B38" s="2">
         <v>36923</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B39" s="2">
         <v>36924</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B40" s="2">
         <v>36925</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B41" s="2">
         <v>36926</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B42" s="2">
         <v>36927</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B43" s="2">
         <v>36928</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B44" s="2">
         <v>36929</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B45" s="2">
         <v>36930</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B46" s="2">
         <v>36931</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B47" s="2">
         <v>36932</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B48" s="2">
         <v>36933</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B49" s="2">
         <v>36934</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B50" s="2">
         <v>36935</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B51" s="2">
         <v>36936</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6265,563 +6277,563 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B39" t="b">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B40" t="b">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B44" t="b">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B45" t="b">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B50" t="b">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6840,22 +6852,22 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6863,7 +6875,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6871,7 +6883,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6879,7 +6891,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6887,7 +6899,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6895,7 +6907,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6903,7 +6915,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -6911,7 +6923,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -6919,7 +6931,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -6927,7 +6939,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -6935,7 +6947,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -6943,7 +6955,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -6951,7 +6963,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -6959,7 +6971,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -6967,7 +6979,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -6975,7 +6987,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -6983,7 +6995,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -6991,7 +7003,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -6999,7 +7011,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7007,7 +7019,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7015,7 +7027,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7023,7 +7035,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -7031,7 +7043,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -7039,7 +7051,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7047,7 +7059,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -7055,7 +7067,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -7063,7 +7075,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -7071,7 +7083,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -7079,7 +7091,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -7087,7 +7099,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -7095,7 +7107,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -7103,7 +7115,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -7111,7 +7123,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -7119,7 +7131,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -7127,7 +7139,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -7135,7 +7147,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -7143,7 +7155,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -7151,7 +7163,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -7159,7 +7171,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -7167,7 +7179,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -7175,7 +7187,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -7183,7 +7195,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -7191,7 +7203,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7199,7 +7211,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -7207,7 +7219,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -7215,7 +7227,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -7223,7 +7235,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -7231,7 +7243,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -7239,7 +7251,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -7247,7 +7259,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B51">
         <v>50</v>
